--- a/R Scripts/Reference area representativeness/Data/Number of samples 5%.xlsx
+++ b/R Scripts/Reference area representativeness/Data/Number of samples 5%.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/4c70d6a684f70497/BFNP/Projects/Forest-Ecosystem-Monitoring/R Scripts/Reference area representativeness/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FCE818A8-2A1A-47AF-A442-D10BB8A5C0F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="8_{FCE818A8-2A1A-47AF-A442-D10BB8A5C0F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FCB7358E-5818-4F4F-9B15-A2B0250EC8FC}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="16305" xr2:uid="{857FDE79-7EAF-47AC-A402-F09B5AA0535A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{857FDE79-7EAF-47AC-A402-F09B5AA0535A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -399,10 +399,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60792481-59D9-4670-8D2E-3D386187C7FA}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -410,7 +410,7 @@
     <col min="2" max="2" width="21" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -421,7 +421,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -432,7 +432,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -443,7 +443,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -452,6 +452,10 @@
       </c>
       <c r="C4">
         <v>385</v>
+      </c>
+      <c r="D4">
+        <f>C4+C2</f>
+        <v>779</v>
       </c>
     </row>
   </sheetData>
